--- a/myskills.xlsx
+++ b/myskills.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects" sheetId="8" r:id="rId1"/>
-    <sheet name="myskills" sheetId="2" r:id="rId2"/>
-    <sheet name="blogs" sheetId="3" r:id="rId3"/>
-    <sheet name="chds" sheetId="4" r:id="rId4"/>
-    <sheet name="cv" sheetId="9" r:id="rId5"/>
+    <sheet name="CV" sheetId="9" r:id="rId1"/>
+    <sheet name="Projects" sheetId="8" r:id="rId2"/>
+    <sheet name="myskills" sheetId="2" r:id="rId3"/>
+    <sheet name="blogs" sheetId="3" r:id="rId4"/>
+    <sheet name="chds" sheetId="4" r:id="rId5"/>
     <sheet name="articles" sheetId="5" r:id="rId6"/>
     <sheet name="libraries" sheetId="6" r:id="rId7"/>
     <sheet name="github" sheetId="7" r:id="rId8"/>
@@ -676,9 +676,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -741,7 +755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -899,7 +913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -972,7 +986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1004,20 +1018,6 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
